--- a/Src/Data/Tables/ShopDefine.xlsx
+++ b/Src/Data/Tables/ShopDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>名称</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>没有杂货商店</t>
+  </si>
+  <si>
+    <t>坐骑商店</t>
+  </si>
+  <si>
+    <t>千里马要不要来一匹？</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -112,6 +118,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -277,11 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -294,20 +306,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -333,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,24 +521,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,28 +634,19 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,152 +655,161 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -842,6 +822,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,8 +980,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F5" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F5" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F6" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1295,7 +1284,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1400,38 +1389,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="4:6">
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:6">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="13.2" spans="4:6">
-      <c r="D7" s="6"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="13.2" spans="6:6">
-      <c r="F8" s="6"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="13.2" spans="4:6">
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
